--- a/DataBase/PBIS_TABLE_INFO.xlsx
+++ b/DataBase/PBIS_TABLE_INFO.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
   <si>
     <t>테이블명</t>
   </si>
@@ -483,7 +483,7 @@
     <t>문제 번호</t>
   </si>
   <si>
-    <t>pbNum</t>
+    <t>pb_um</t>
   </si>
   <si>
     <t>플랜 정보가 담긴 테이블</t>
@@ -616,6 +616,12 @@
   </si>
   <si>
     <t>점수 인덱스</t>
+  </si>
+  <si>
+    <t>시험 카테고리(어떤 문제를 풀었는지)</t>
+  </si>
+  <si>
+    <t>ex_cat</t>
   </si>
   <si>
     <t>1과목 점수</t>
@@ -795,7 +801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K218"/>
+  <dimension ref="A1:K219"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5850,7 +5856,7 @@
         <v>5</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F212" s="9" t="s">
         <v>196</v>
@@ -5859,7 +5865,7 @@
         <v>197</v>
       </c>
       <c r="H212" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I212" s="6" t="s">
         <v>5</v>
@@ -6048,7 +6054,7 @@
         <v>5</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F218" s="9" t="s">
         <v>208</v>
@@ -6057,15 +6063,48 @@
         <v>209</v>
       </c>
       <c r="H218" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I218" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J218" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K218" s="10"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="6">
+        <v>11</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E219" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F219" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="G219" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="H219" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I218" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J218" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K218" s="10"/>
+      <c r="I219" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J219" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K219" s="10"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -9110,7 +9149,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9400,7 +9439,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>196</v>
@@ -9409,7 +9448,7 @@
         <v>197</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>5</v>
@@ -9598,7 +9637,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>208</v>
@@ -9607,15 +9646,48 @@
         <v>209</v>
       </c>
       <c r="H18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6">
+        <v>11</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="10"/>
+      <c r="I19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="10"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -9821,7 +9893,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M95"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9891,7 +9963,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -9930,7 +10002,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -9969,7 +10041,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -10008,7 +10080,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -10047,7 +10119,7 @@
         <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
@@ -10086,7 +10158,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -10127,7 +10199,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -10166,7 +10238,7 @@
         <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>21</v>
@@ -10205,7 +10277,7 @@
         <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>5</v>
@@ -10246,7 +10318,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>5</v>
@@ -10285,7 +10357,7 @@
         <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
@@ -10324,7 +10396,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>21</v>
@@ -10363,7 +10435,7 @@
         <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
@@ -10404,7 +10476,7 @@
         <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>5</v>
@@ -10443,7 +10515,7 @@
         <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>5</v>
@@ -10482,7 +10554,7 @@
         <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>5</v>
@@ -10521,7 +10593,7 @@
         <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>5</v>
@@ -10560,7 +10632,7 @@
         <v>55</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>5</v>
@@ -10599,7 +10671,7 @@
         <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>5</v>
@@ -10638,7 +10710,7 @@
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>5</v>
@@ -10677,7 +10749,7 @@
         <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>21</v>
@@ -10716,7 +10788,7 @@
         <v>75</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>5</v>
@@ -10755,7 +10827,7 @@
         <v>75</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>5</v>
@@ -10794,7 +10866,7 @@
         <v>75</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>5</v>
@@ -10833,7 +10905,7 @@
         <v>75</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>5</v>
@@ -10872,7 +10944,7 @@
         <v>75</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
@@ -10911,7 +10983,7 @@
         <v>75</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
@@ -10950,7 +11022,7 @@
         <v>75</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>5</v>
@@ -10989,7 +11061,7 @@
         <v>75</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
@@ -11028,7 +11100,7 @@
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
@@ -11067,7 +11139,7 @@
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>5</v>
@@ -11106,7 +11178,7 @@
         <v>98</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>21</v>
@@ -11145,7 +11217,7 @@
         <v>98</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>5</v>
@@ -11186,7 +11258,7 @@
         <v>98</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>5</v>
@@ -11227,7 +11299,7 @@
         <v>98</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>5</v>
@@ -11266,7 +11338,7 @@
         <v>98</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>5</v>
@@ -11305,7 +11377,7 @@
         <v>98</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>5</v>
@@ -11344,7 +11416,7 @@
         <v>98</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>5</v>
@@ -11383,7 +11455,7 @@
         <v>98</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>5</v>
@@ -11422,7 +11494,7 @@
         <v>115</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>21</v>
@@ -11461,7 +11533,7 @@
         <v>115</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>5</v>
@@ -11502,7 +11574,7 @@
         <v>115</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>5</v>
@@ -11543,7 +11615,7 @@
         <v>115</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>5</v>
@@ -11582,7 +11654,7 @@
         <v>115</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>5</v>
@@ -11621,7 +11693,7 @@
         <v>115</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>5</v>
@@ -11660,7 +11732,7 @@
         <v>115</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>5</v>
@@ -11699,7 +11771,7 @@
         <v>115</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>5</v>
@@ -11738,7 +11810,7 @@
         <v>115</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>5</v>
@@ -11777,7 +11849,7 @@
         <v>115</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>5</v>
@@ -11816,7 +11888,7 @@
         <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>5</v>
@@ -11855,7 +11927,7 @@
         <v>115</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>5</v>
@@ -11894,7 +11966,7 @@
         <v>115</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>5</v>
@@ -11933,7 +12005,7 @@
         <v>115</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>5</v>
@@ -11974,7 +12046,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>21</v>
@@ -12013,7 +12085,7 @@
         <v>142</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>5</v>
@@ -12054,7 +12126,7 @@
         <v>142</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>5</v>
@@ -12095,7 +12167,7 @@
         <v>142</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>5</v>
@@ -12134,7 +12206,7 @@
         <v>142</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>5</v>
@@ -12173,7 +12245,7 @@
         <v>142</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>5</v>
@@ -12212,7 +12284,7 @@
         <v>152</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>21</v>
@@ -12251,7 +12323,7 @@
         <v>152</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>5</v>
@@ -12292,7 +12364,7 @@
         <v>152</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>5</v>
@@ -12331,7 +12403,7 @@
         <v>152</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>5</v>
@@ -12370,7 +12442,7 @@
         <v>158</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>21</v>
@@ -12409,7 +12481,7 @@
         <v>158</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>5</v>
@@ -12450,7 +12522,7 @@
         <v>158</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>5</v>
@@ -12491,7 +12563,7 @@
         <v>158</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>5</v>
@@ -12530,7 +12602,7 @@
         <v>158</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>5</v>
@@ -12569,7 +12641,7 @@
         <v>158</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>5</v>
@@ -12608,7 +12680,7 @@
         <v>158</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>5</v>
@@ -12647,7 +12719,7 @@
         <v>158</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>5</v>
@@ -12684,7 +12756,7 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>5</v>
@@ -12721,7 +12793,7 @@
         <v>173</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>21</v>
@@ -12760,7 +12832,7 @@
         <v>173</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>5</v>
@@ -12801,7 +12873,7 @@
         <v>173</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>5</v>
@@ -12840,7 +12912,7 @@
         <v>173</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>5</v>
@@ -12879,7 +12951,7 @@
         <v>178</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>21</v>
@@ -12918,7 +12990,7 @@
         <v>178</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>5</v>
@@ -12957,7 +13029,7 @@
         <v>178</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>5</v>
@@ -12996,7 +13068,7 @@
         <v>178</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>5</v>
@@ -13035,7 +13107,7 @@
         <v>178</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>5</v>
@@ -13074,7 +13146,7 @@
         <v>178</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>5</v>
@@ -13113,7 +13185,7 @@
         <v>178</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>5</v>
@@ -13152,7 +13224,7 @@
         <v>192</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>21</v>
@@ -13191,7 +13263,7 @@
         <v>192</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>5</v>
@@ -13232,7 +13304,7 @@
         <v>192</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>5</v>
@@ -13273,7 +13345,7 @@
         <v>192</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>5</v>
@@ -13285,7 +13357,7 @@
         <v>5</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>196</v>
@@ -13294,7 +13366,7 @@
         <v>197</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>5</v>
@@ -13312,7 +13384,7 @@
         <v>192</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>5</v>
@@ -13351,7 +13423,7 @@
         <v>192</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>5</v>
@@ -13390,7 +13462,7 @@
         <v>192</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>5</v>
@@ -13429,7 +13501,7 @@
         <v>192</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>5</v>
@@ -13468,7 +13540,7 @@
         <v>192</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>5</v>
@@ -13507,7 +13579,7 @@
         <v>192</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>5</v>
@@ -13519,7 +13591,7 @@
         <v>5</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>208</v>
@@ -13528,15 +13600,54 @@
         <v>209</v>
       </c>
       <c r="J94" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="4"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="J95" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K94" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="4"/>
+      <c r="K95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M95" s="4"/>
     </row>
   </sheetData>
   <headerFooter/>
